--- a/stage2_excels/GA/GA_kfold_three.xlsx
+++ b/stage2_excels/GA/GA_kfold_three.xlsx
@@ -473,106 +473,106 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9695880455684904</v>
+        <v>0.9695880455684435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>lab_b_median</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_25</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.96464063256571</v>
+        <v>0.9550967651094219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9606801764475235</v>
+        <v>0.9375048709525714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.955096765109422</v>
+        <v>0.9326887379297529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>luv_l_percentile_25</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>lab_a_median</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_25</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9451273114477921</v>
+        <v>0.9325707651863556</v>
       </c>
     </row>
   </sheetData>
